--- a/CH-043 Sort Table columns .xlsx
+++ b/CH-043 Sort Table columns .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349DAAB-9C76-48EA-84EB-73AC91AC403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BC7BF-4122-4F4E-A17E-D4E860F6BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_nColHead">MyWork!$B$2:$G$2</definedName>
+    <definedName name="_ncols">MyWork!$C$2:$G$2</definedName>
     <definedName name="_nData">MyWork!$C$3:$G$9</definedName>
-    <definedName name="_nReg">MyWork!$B$3:$B$9</definedName>
+    <definedName name="_nReg">MyWork!$B$2:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -952,6 +953,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1524,7 +1528,7 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C15" sqref="C15:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1913,28 +1917,29 @@
       _xlpm.s, _xlfn.BYCOL(_nData,_xlfn.LAMBDA(_xlpm.c,SUM(_xlpm.c))),
       _xlpm.od, _xlfn.SEQUENCE(1,COLUMNS(_nData)),
       _xlpm.zig, _xlfn.SORTBY(_xlpm.od,_xlpm.s,-1),
-      _xlfn.VSTACK(_nColHead,_xlfn.HSTACK(_nReg,_xlfn.CHOOSECOLS(_nData,_xlpm.zig)))
+      _xlpm.scols, _xlfn.SORTBY(_ncols,_xlpm.s,-1),
+      _xlfn.HSTACK(_nReg,_xlfn.VSTACK(_xlpm.scols,_xlfn.CHOOSECOLS(_nData,_xlpm.zig)))
 )</f>
         <v>Regions</v>
       </c>
       <c r="C14" s="12" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="G14" s="13" t="str">
         <v>Product A</v>
-      </c>
-      <c r="D14" s="12" t="str">
-        <v>Product B</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <v>Product C</v>
-      </c>
-      <c r="F14" s="12" t="str">
-        <v>Product D</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <v>Product E</v>
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="8" t="b" cm="1">
-        <f t="array" ref="J14">AND(C15:G21=K3:O9)</f>
+        <f t="array" ref="J14">AND(_xlfn.ANCHORARRAY(B14)=J2:O9)</f>
         <v>1</v>
       </c>
       <c r="K14" s="8"/>
